--- a/Scripts/python_ping/resultados_ping.xlsx
+++ b/Scripts/python_ping/resultados_ping.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-02-14 13:30:58</t>
+          <t>2024-02-14 14:11:19</t>
         </is>
       </c>
     </row>
@@ -510,12 +510,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-02-14 13:30:58</t>
+          <t>2024-02-14 14:11:19</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-02-14 13:31:00</t>
+          <t>2024-02-14 14:11:22</t>
         </is>
       </c>
     </row>
@@ -554,12 +554,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-02-14 13:31:00</t>
+          <t>2024-02-14 14:11:22</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-02-14 13:31:00</t>
+          <t>2024-02-14 14:11:22</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-02-14 13:31:04</t>
+          <t>2024-02-14 14:11:26</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-02-14 13:31:04</t>
+          <t>2024-02-14 14:11:26</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-02-14 13:31:04</t>
+          <t>2024-02-14 14:11:26</t>
         </is>
       </c>
     </row>
@@ -669,12 +669,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-02-14 13:31:07</t>
+          <t>2024-02-14 14:11:29</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B3">
+  <conditionalFormatting sqref="B1:B2">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Verdadero"</formula>
     </cfRule>
@@ -700,11 +700,6 @@
       <formula>"Verdadero"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="1">
-      <formula>"Falso"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="1">
       <formula>"Falso"</formula>
     </cfRule>
   </conditionalFormatting>
